--- a/Experiments_ICHI/Experiments_2018_07_28/2018_07_29_normalized_rain_and_cases/consolidatedCor.xlsx
+++ b/Experiments_ICHI/Experiments_2018_07_28/2018_07_29_normalized_rain_and_cases/consolidatedCor.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayantha/Niro_thesis/Experiments_ICHI/Experiments_2018_07_28/2018_07_29_normalized_rain_and_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B7ECED-E384-E342-ABDA-391A533943BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6A503-EC65-A649-A66B-BA660D6214CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidatedCor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">consolidatedCor!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">consolidatedCor!$A$2:$A$78</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">consolidatedCor!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">consolidatedCor!$B$2:$B$78</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -3148,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
